--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.25040933333333</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N2">
-        <v>81.751228</v>
+        <v>79.813328</v>
       </c>
       <c r="O2">
-        <v>0.455635031912059</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P2">
-        <v>0.4556350319120589</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q2">
-        <v>204.7812398060867</v>
+        <v>199.9269327292533</v>
       </c>
       <c r="R2">
-        <v>1843.03115825478</v>
+        <v>1799.34239456328</v>
       </c>
       <c r="S2">
-        <v>0.4520571361778226</v>
+        <v>0.5608132848742202</v>
       </c>
       <c r="T2">
-        <v>0.4520571361778226</v>
+        <v>0.5608132848742202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2346105337346748</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P3">
-        <v>0.2346105337346747</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q3">
         <v>105.4436832219417</v>
       </c>
       <c r="R3">
-        <v>948.9931489974749</v>
+        <v>948.993148997475</v>
       </c>
       <c r="S3">
-        <v>0.2327682433727296</v>
+        <v>0.2957791506610819</v>
       </c>
       <c r="T3">
-        <v>0.2327682433727295</v>
+        <v>0.2957791506610819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +667,40 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3744183333333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N4">
-        <v>1.123255</v>
+        <v>0.606637</v>
       </c>
       <c r="O4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P4">
-        <v>0.00626038703382388</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q4">
-        <v>2.813677019241666</v>
+        <v>1.519584231471667</v>
       </c>
       <c r="R4">
-        <v>25.323093173175</v>
+        <v>13.676258083245</v>
       </c>
       <c r="S4">
-        <v>0.00621122704722454</v>
+        <v>0.004262572395129825</v>
       </c>
       <c r="T4">
-        <v>0.006211227047224539</v>
+        <v>0.004262572395129825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +729,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.009092</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N5">
-        <v>54.027276</v>
+        <v>16.624701</v>
       </c>
       <c r="O5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P5">
-        <v>0.3011174293844444</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q5">
-        <v>135.33463451614</v>
+        <v>41.643739983765</v>
       </c>
       <c r="R5">
-        <v>1218.01171064526</v>
+        <v>374.793659853885</v>
       </c>
       <c r="S5">
-        <v>0.2987528904648235</v>
+        <v>0.116814489653429</v>
       </c>
       <c r="T5">
-        <v>0.2987528904648235</v>
+        <v>0.116814489653429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.171642</v>
+      </c>
+      <c r="H6">
+        <v>0.514926</v>
+      </c>
+      <c r="I6">
+        <v>0.02233050241613897</v>
+      </c>
+      <c r="J6">
+        <v>0.02233050241613898</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.514794999999999</v>
-      </c>
-      <c r="H6">
-        <v>22.544385</v>
-      </c>
-      <c r="I6">
-        <v>0.992147452492356</v>
-      </c>
-      <c r="J6">
-        <v>0.992147452492356</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1421396666666666</v>
+        <v>26.60444266666667</v>
       </c>
       <c r="N6">
-        <v>0.4264189999999999</v>
+        <v>79.813328</v>
       </c>
       <c r="O6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="P6">
-        <v>0.00237661793499797</v>
+        <v>0.5736225649467147</v>
       </c>
       <c r="Q6">
-        <v>1.068150456368333</v>
+        <v>4.566439748192</v>
       </c>
       <c r="R6">
-        <v>9.613354107314997</v>
+        <v>41.097957733728</v>
       </c>
       <c r="S6">
-        <v>0.00235795542975588</v>
+        <v>0.01280928007249445</v>
       </c>
       <c r="T6">
-        <v>0.002357955429755879</v>
+        <v>0.01280928007249445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.25040933333333</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N7">
-        <v>81.751228</v>
+        <v>42.094435</v>
       </c>
       <c r="O7">
-        <v>0.455635031912059</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="P7">
-        <v>0.4556350319120589</v>
+        <v>0.3025349071358453</v>
       </c>
       <c r="Q7">
-        <v>1.620781679388444</v>
+        <v>2.40839100409</v>
       </c>
       <c r="R7">
-        <v>14.587035114496</v>
+        <v>21.67551903681</v>
       </c>
       <c r="S7">
-        <v>0.003577895734236318</v>
+        <v>0.006755756474763373</v>
       </c>
       <c r="T7">
-        <v>0.003577895734236319</v>
+        <v>0.006755756474763374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +900,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.171642</v>
+      </c>
+      <c r="H8">
+        <v>0.514926</v>
+      </c>
+      <c r="I8">
+        <v>0.02233050241613897</v>
+      </c>
+      <c r="J8">
+        <v>0.02233050241613898</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.178432</v>
-      </c>
-      <c r="I8">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J8">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>14.03147833333333</v>
+        <v>0.2022123333333333</v>
       </c>
       <c r="N8">
-        <v>42.094435</v>
+        <v>0.606637</v>
       </c>
       <c r="O8">
-        <v>0.2346105337346748</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="P8">
-        <v>0.2346105337346747</v>
+        <v>0.004359931864156574</v>
       </c>
       <c r="Q8">
-        <v>0.834554913991111</v>
+        <v>0.034708129318</v>
       </c>
       <c r="R8">
-        <v>7.51099422592</v>
+        <v>0.312373163862</v>
       </c>
       <c r="S8">
-        <v>0.001842290361945242</v>
+        <v>9.735946902674968E-05</v>
       </c>
       <c r="T8">
-        <v>0.001842290361945242</v>
+        <v>9.735946902674969E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +962,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,152 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3744183333333333</v>
+        <v>5.541567000000001</v>
       </c>
       <c r="N9">
-        <v>1.123255</v>
+        <v>16.624701</v>
       </c>
       <c r="O9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="P9">
-        <v>0.00626038703382388</v>
+        <v>0.1194825960532834</v>
       </c>
       <c r="Q9">
-        <v>0.02226940401777778</v>
+        <v>0.9511656430140001</v>
       </c>
       <c r="R9">
-        <v>0.20042463616</v>
+        <v>8.560490787126001</v>
       </c>
       <c r="S9">
-        <v>4.915998659934033E-05</v>
+        <v>0.002668106399854402</v>
       </c>
       <c r="T9">
-        <v>4.915998659934033E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.178432</v>
-      </c>
-      <c r="I10">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J10">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.009092</v>
-      </c>
-      <c r="N10">
-        <v>54.027276</v>
-      </c>
-      <c r="O10">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="P10">
-        <v>0.3011174293844444</v>
-      </c>
-      <c r="Q10">
-        <v>1.071132767914667</v>
-      </c>
-      <c r="R10">
-        <v>9.640194911232001</v>
-      </c>
-      <c r="S10">
-        <v>0.002364538919620978</v>
-      </c>
-      <c r="T10">
-        <v>0.002364538919620978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05947733333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.178432</v>
-      </c>
-      <c r="I11">
-        <v>0.007852547507643968</v>
-      </c>
-      <c r="J11">
-        <v>0.00785254750764397</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.1421396666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.4264189999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="P11">
-        <v>0.00237661793499797</v>
-      </c>
-      <c r="Q11">
-        <v>0.00845408833422222</v>
-      </c>
-      <c r="R11">
-        <v>0.07608679500799999</v>
-      </c>
-      <c r="S11">
-        <v>1.866250524209027E-05</v>
-      </c>
-      <c r="T11">
-        <v>1.866250524209027E-05</v>
+        <v>0.002668106399854402</v>
       </c>
     </row>
   </sheetData>
